--- a/biology/Médecine/Micro_déchirure/Micro_déchirure.xlsx
+++ b/biology/Médecine/Micro_déchirure/Micro_déchirure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micro_d%C3%A9chirure</t>
+          <t>Micro_déchirure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une micro déchirure est une lésion musculaire qui se produit lorsque le muscle dépasse sa limite d'élasticité. La blessure est si petite qu'elle est à peine visible à l'échographie. Le scanner est utilisé pour bien faire le diagnostic.
 L'exercice graduel est bénéfique pour la guérison puisqu'il active la circulation sanguine et va apporter des nutriments qui vont accélérer la cicatrisation. Certains vont donc pratiquer des exercices spécialisés pour faciliter la guérison de ces déchirures, par exemple étirer le muscle et le détendre.
